--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/W文字探索地图表_TextExplore_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/W文字探索地图表_TextExplore_hotfix.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F22ADB-3846-403B-AEB3-59E902D80C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="4" r:id="rId1"/>
+    <sheet name="main" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Administrator</author>
+    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">Administrator</d:author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
-        <r>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 如果没有指定，将使用预制的通用文字。</t>
-        </r>
+        </d:r>
       </text>
     </comment>
   </commentList>
@@ -56,7 +50,7 @@
     <t>红石城废弃矿洞</t>
   </si>
   <si>
-    <t>entrance:这是一个红石城附近废弃的矿洞，一些损坏已久的挖掘工具还在地上七零八落地散列着。
+    <t xml:space="preserve">entrance:这是一个红石城附近废弃的矿洞，一些损坏已久的挖掘工具还在地上七零八落地散列着。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在黑漆漆的矿洞里四处探索，四处寂静无声。你感到阵阵阴风吹过。
@@ -70,10 +64,24 @@
 NORMAL_LOSE:你仓皇逃走，远远地听到了身后传来的嘲笑声。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:You happen upon an abandoned mine near Redstone Keep. Broken tools are scattered on the ground.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You search the pitch-black caves. They are completely silent, except for the cold wind that constantly blows in your face.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:Fire lights up the darkness, and you see the savage face of a wizard among the flickering flames!
+BOSS_WIN:You defeat Chakram Jahim the Wizard and find some loot.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are no match for the foe and flee for your life.
+NORMAL:You encounter bandits!
+NORMAL_WIN:The bandits scatter. You continue your search and find some supplies.\n\n{0}
+NORMAL_LOSE:You flee for your life to the sound of sinister laughter.</t>
+  </si>
+  <si>
     <t>制陶工坊</t>
   </si>
   <si>
-    <t>entrance:这是一个旧王朝时代的制陶工坊，如今已经完全废弃。
+    <t xml:space="preserve">entrance:这是一个旧王朝时代的制陶工坊，如今已经完全废弃。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在洞窟里走着，到处都是破碎的陶土。
@@ -87,10 +95,24 @@
 NORMAL_LOSE:你仓皇逃走了。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:You find a pottery workshop dating back to the Old Empire.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:Shattered pieces of pottery are scattered across the ground.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:A group of bandits ambush you from behind some clay statues!
+BOSS_WIN:You defeat the bandits and find some loot.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are no match for the foe and flee for your life.
+NORMAL:You encounter bandits!
+NORMAL_WIN:You defeat the bandits. You continue your search and find some supplies.\n\n{0}
+NORMAL_LOSE:You flee for your life.</t>
+  </si>
+  <si>
     <t>花卉乡山洞</t>
   </si>
   <si>
-    <t>entrance:这是一个黑崖住民们在日蚀战争期间避难的山洞，如今似乎已经无人在此逗留。
+    <t xml:space="preserve">entrance:这是一个黑崖住民们在日蚀战争期间避难的山洞，如今似乎已经无人在此逗留。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在洞窟里走着，时不时还可以见到一些破烂的生活物资。
@@ -104,10 +126,24 @@
 NORMAL_LOSE:你仓皇逃走了。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:This is a cave used by the people of Umbra Cliffs as refuge during the Battle of the Black Sun. It has long been abandoned.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through the cave. You see various items left behind by the previous occupants. 
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:You are surprised by spirits of nature in the abandoned cave.\n\nArboreans and Dryads surround you!
+BOSS_WIN:You defeat the spirits of nature and find some loot.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are no match for the foe and flee for your life.
+NORMAL:You encounter some angry wild boars!
+NORMAL_WIN:You defeat the wild boars. You continue your search and find some supplies.\n\n{0}
+NORMAL_LOSE:You flee for your life.</t>
+  </si>
+  <si>
     <t>采药雪谷</t>
   </si>
   <si>
-    <t>entrance:这是一个生长有药材的雪谷，日蚀战争后，由于火魔人、野兽出没，这里已经很少有人来了。
+    <t xml:space="preserve">entrance:这是一个生长有药材的雪谷，日蚀战争后，由于火魔人、野兽出没，这里已经很少有人来了。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在雪谷中艰难前进，四周只有风声呜咽。
@@ -121,14 +157,28 @@
 NORMAL_LOSE:你仓皇逃走了。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:You see a secluded and snowy valley. Medicinal herbs can be found here, but roaming Ifrit and beasts keep most people away.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You trudge through the valley against the howling wind.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:Ominous laughter echoes through the area. You have been surrounded by Ifrit!
+BOSS_WIN:You defeat the Ifrit and find some loot.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are no match for the foe and flee for your life.
+NORMAL:You encounter some Brown Bears!
+NORMAL_WIN:You defeat the Brown Bears. You continue your search and find some supplies.\n\n{0}
+NORMAL_LOSE:You flee for your life.</t>
+  </si>
+  <si>
     <t>秘密集会所</t>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,21 +190,21 @@
 empty:这里没有敌人。
 </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>BOSSMAP:前方忽然开阔起来，看样子是洞窟的出口了。</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -168,10 +218,25 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">entrance:You stumble upon a secluded cave. There is a warrior here wearing the garb of the Oryx, a clan annihilated during the Battle of the Black Sun.
+cost:You are stopped by the warrior. He hints at a gathering of Oryx survivors inside, but will allow you to pass for {0}.
+noCost:You do not have what the warrior wants. He gestures for you to leave.
+encounter:You hear lowered voices as you walk through the cave.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSSMAP:You see light up ahead. It must be the exit.
+BOSS:The wizard mutters incantations and prepares to cast a spell at you!
+BOSS_WIN:You defeat Shedan the Wizard and find some loot.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are no match for the foe and flee for your life.
+NORMAL:You encounter Oryx warriors!
+NORMAL_WIN:You defeat the Oryx warriors. You continue your search and find some supplies.\n\n{0}
+NORMAL_LOSE:You flee for your life as the sounds of sinister laughter echo behind you.</t>
+  </si>
+  <si>
     <t>狂风山谷</t>
   </si>
   <si>
-    <t>entrance:这是一个终年狂风肆虐的山谷，战士和马匹都在此逡巡，不敢向前。
+    <t xml:space="preserve">entrance:这是一个终年狂风肆虐的山谷，战士和马匹都在此逡巡，不敢向前。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在狂风之中吃力地行走，四处只有呼啸的风声。
@@ -185,10 +250,24 @@
 NORMAL_LOSE:你仓皇逃离了狂风山谷。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:A valley where fierce gales rage year-round stretches out before you. Few men are stupid enough to proceed, and even fewer horses still.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You struggle to advance in the raging gale.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The ground shakes. It's a Centaur stampede!
+BOSS_WIN:You defeat the Centaurs.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are no match for the foe and flee for your life.
+NORMAL:You encounter some Pythons.
+NORMAL_WIN:You defeat the Pythons.\n\n{0}
+NORMAL_LOSE:You flee the valley.</t>
+  </si>
+  <si>
     <t>林间幻境</t>
   </si>
   <si>
-    <t>entrance:这是一个巫术法阵，似乎是由花妖和树妖所留下。
+    <t xml:space="preserve">entrance:这是一个巫术法阵，似乎是由花妖和树妖所留下。
 cost:要开始探索，你需要先花费{0}才能激活这个法阵。
 noCost:你的资源不足，无法开始探索。
 encounter:你在林间的幻境中四处徘徊，树林间时不时传来花妖的笑声。
@@ -202,10 +281,24 @@
 NORMAL_LOSE:你仓皇逃离了这里。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:A magic circle, left behind by Dryads and Arboreans.
+cost:It will cost {0} to activate the magic circle.
+noCost:Not enough supplies to explore.
+encounter:You wander through the woods, hearing the laughter of Dryads from among the trees.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The ground shakes. You are surrounded by Arboreans!
+BOSS_WIN:You defeat the nature spirits.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are no match for the foe and flee for your life.
+NORMAL:You encounter Fairys!
+NORMAL_WIN:You defeat the Fairys.\n\n{0}
+NORMAL_LOSE:You flee for your life.</t>
+  </si>
+  <si>
     <t>浅溪溶洞</t>
   </si>
   <si>
-    <t>entrance:这是浅溪镇附近、大河河滩边的一个溶洞，已经被鱼人、毒蛇和蜥蜴占据。
+    <t xml:space="preserve">entrance:这是浅溪镇附近、大河河滩边的一个溶洞，已经被鱼人、毒蛇和蜥蜴占据。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在溶洞中小心地前进，四处只有脚步的回响声、滴答的滴水声。
@@ -219,10 +312,24 @@
 NORMAL_LOSE:你不甘心地从溶洞撤退了。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:A karst cave near Agadir, occupied by Bahars, Vipers and Poison Lizards.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You advance carefully through the cave. The only sounds you here are the echoes of your own footsteps and the sounds of dripping water.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:Poison Lizards block your path!
+BOSS_WIN:You defeat the lizards.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are no match for the foe and flee for your life.
+NORMAL:You encounter Bahar!
+NORMAL_WIN:You defeat the Bahar.\n\n{0}
+NORMAL_LOSE:You retreat from the cave.</t>
+  </si>
+  <si>
     <t>冰窟</t>
   </si>
   <si>
-    <t>entrance:这是终年积雪的冰窟，人迹罕至，严寒彻骨。在冰窟的入口处，你发现了一些巨人留下的巨大足印。
+    <t xml:space="preserve">entrance:这是终年积雪的冰窟，人迹罕至，严寒彻骨。在冰窟的入口处，你发现了一些巨人留下的巨大足印。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在冰窟中前进，彻骨的寒冷使得这次的冒险极为艰难。
@@ -236,10 +343,24 @@
 NORMAL_LOSE:你无可奈何，从冰窟撤退了。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:A remote ice cave. You find giant footsteps outside the cave.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You explore the freezing cave.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The ground shakes. You find yourself face-to-face with Giants!
+BOSS_WIN:You defeat the Giants.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are no match for the foe and flee for your life.
+NORMAL:You encounter some beasts!
+NORMAL_WIN:You defeat the beasts.\n\n{0}
+NORMAL_LOSE:You are forced to retreat from the cave.</t>
+  </si>
+  <si>
     <t>古老秘仪之窟</t>
   </si>
   <si>
-    <t>entrance:这是一个被巫师所封印的古老洞窟，你从洞窟之中感受到了一丝危险的气息。
+    <t xml:space="preserve">entrance:这是一个被巫师所封印的古老洞窟，你从洞窟之中感受到了一丝危险的气息。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在洞窟中前进，四周的迷雾渐渐遮挡了你的视线。
@@ -253,10 +374,24 @@
 NORMAL_LOSE:你意识到现在还不是自己踏足这里之时，从古老洞窟撤退了。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient cave sealed away by a wizard. You sense danger from within.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You advance through the cave. A fog begins to obstruct your vision.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The ground shakes. You come face-to-face with Giants who have been sealed away here!
+BOSS_WIN:You defeat the Giants.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are not ready to set foot here. You retreat from the cave.
+NORMAL:You encounter Yetis!
+NORMAL_WIN:You defeat the Yetis.\n\n{0}
+NORMAL_LOSE:You are not ready to set foot here. You retreat from the cave.</t>
+  </si>
+  <si>
     <t>树宫</t>
   </si>
   <si>
-    <t>entrance:这是一座自然之灵们建造的树宫，传闻这里放置着来自天空的秘宝。
+    <t xml:space="preserve">entrance:这是一座自然之灵们建造的树宫，传闻这里放置着来自天空的秘宝。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在树宫的藤蔓小路上艰难地向上方螺旋前进，时不时听见树人和花妖的低语。
@@ -270,10 +405,24 @@
 NORMAL_LOSE:你害怕惊扰更多的自然之灵，从树宫撤退了。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:A tree palace built by the spirits of nature.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You move slowly through the vine paths. From time to time you can hear the whispers of Arboreans and Dryads.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:Arborean Elders block your way. You are surrounded by the spirits of nature.
+BOSS_WIN:You defeat the Arborean Elders.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:Best not disturb the spirits of nature any further. You retreat from the place.
+NORMAL:You encounter Dryads!
+NORMAL_WIN:You defeat the Dryads. \n\n{0}
+NORMAL_LOSE:Best not disturb the spirits of nature any further. You retreat from the place.</t>
+  </si>
+  <si>
     <t>巨大兽骨洞窟</t>
   </si>
   <si>
-    <t>entrance:这是旧王朝时代挖掘出的一个神秘洞窟，骆驼城的学者们曾经在这里发现了巨大的兽骨。随着旧王朝的崩溃，关于这里的一切研究都已经停止了。
+    <t xml:space="preserve">entrance:这是旧王朝时代挖掘出的一个神秘洞窟，骆驼城的学者们曾经在这里发现了巨大的兽骨。随着旧王朝的崩溃，关于这里的一切研究都已经停止了。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在兽骨洞窟中探索，偶尔出现的巨大兽骨上绘制着难以理解的彩色纹路。
@@ -287,10 +436,24 @@
 NORMAL_LOSE:你被巨蜥击败，匆匆忙忙地从兽骨洞窟撤退了。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:Scholars from Jamal City found giant bones while excavating this mysterious cave in the days of the Old Empire. The fall of the Old Empire spelled the end for such expeditions.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You explore the cave and see giant bones with strange colors and patterns on them.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:After a blinding flash of light, you see visions of giants attacking you!
+BOSS_WIN:You defeat the giants!\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You black out in the face of the terrifying vision and wake up outside the cave.
+NORMAL:You encounter a swarm of giant Poison Lizards!
+NORMAL_WIN:You defeat the Poison Lizards.\n\n{0}
+NORMAL_LOSE:You are no match for the Toxic Scorpions and flee the cave.</t>
+  </si>
+  <si>
     <t>巨大熔岩空洞</t>
   </si>
   <si>
-    <t>entrance:这是随着日蚀、火魔人一起出现的巨大空洞，从上往下望去，只能看见翻腾不止的熔岩、以及岩浆之中偶尔可见的小路。
+    <t xml:space="preserve">entrance:这是随着日蚀、火魔人一起出现的巨大空洞，从上往下望去，只能看见翻腾不止的熔岩、以及岩浆之中偶尔可见的小路。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在熔岩空洞中前进，四周热浪袭人，甲胄和武器都仿佛要燃烧起来。
@@ -304,10 +467,24 @@
 NORMAL_LOSE:你的力量不足以继续探索熔岩空洞，匆匆地从这里撤退了。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:A massive hole that appeared with the Black Sun and Ifrit. All you can see is rumbling lava, with a precarious path winding through it.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:Lava bubbles around you as you advance on the path. The heat is unbearable; it feels like your weapons and armor could catch fire at any moment.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:You hear ominous laughter all around you, and you find yourself surrounded by Elite Ifrit Warriors.
+BOSS_WIN:You defeat the Elite Ifrit Warriors.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are not strong enough to continue exploring and you are forced to retreat.
+NORMAL:You encounter Ifrit Warriors!
+NORMAL_WIN:You defeat the Ifrit Warriors.\n\n{0}
+NORMAL_LOSE:You are not strong enough to continue exploring and you are forced to retreat.</t>
+  </si>
+  <si>
     <t>雪山巨人石阵</t>
   </si>
   <si>
-    <t>entrance:这是通往大雪山上巨人们聚居之所的传送法阵，终年刮着猛烈的冰风。从很远的地方就能望见此处传来的魔力的炫光，就算在夜空和暴风雪之中都极其耀眼。
+    <t xml:space="preserve">entrance:这是通往大雪山上巨人们聚居之所的传送法阵，终年刮着猛烈的冰风。从很远的地方就能望见此处传来的魔力的炫光，就算在夜空和暴风雪之中都极其耀眼。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的石头小路上前行，四周都是意义不明的巨大石柱。
@@ -321,10 +498,24 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了雪山巨人石阵。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:A portal to the home of the Giants on Zagros Mountains. It is buffeted year-round by icy gales, but its eerie magical glow is unmistakable even in the snowstorm.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk on the ancient stone path, surrounded by strange stone pillars.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The ground shakes and the guardians of the Giants appear before you!
+BOSS_WIN:You defeat the guardians!\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the stone formation.
+NORMAL:You encounter Giants!
+NORMAL_WIN:You defeat the Giants.\n\n{0}
+NORMAL_LOSE:You are knocked out in battle and wake up outside the stone formation.</t>
+  </si>
+  <si>
     <t>扭曲之塔</t>
   </si>
   <si>
-    <t>entrance:这道紫色的巫术门和附近的空间都是扭曲的，一靠近这里，战马都不愿意再往前一步。一定有什么不祥之物隐藏在其中。
+    <t xml:space="preserve">entrance:这道紫色的巫术门和附近的空间都是扭曲的，一靠近这里，战马都不愿意再往前一步。一定有什么不祥之物隐藏在其中。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你感觉自己在一个异空间内行走着，四周都是时隐时现的紫色裂缝。
@@ -338,10 +529,24 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经被同伴们救了出来。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:Time and space are distorted near the purple arcana portal. Your horses refuse to go any further. Some ominous power must be contained with.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:You do not have enough resources.
+encounter:You feel as if you are walking through another dimension. Purple cracks appear in the air before you.
+noDouzhi:You party lost Morale and you resign to fleeing.
+empty:There aren't any enemies here.
+BOSS:You find a man with gigantic arms in the deepest reaches of this space. He charges toward you with a malicious grin stretched across his face!
+BOSS_WIN:You defeated the creature, yet you are unsure whether he was human or some otherworldy demon!\n\n{0}\n\nYou run out of exploration resources and leave this place.
+BOSS_LOSE:You fainted during battle. You awake to find yourself rescued by your companions.
+NORMAL:A horde of lesser winged demons rushes through one of the rifts!
+NORMAL_WIN:You defeated the demons.\n\n{0}
+NORMAL_LOSE:You fainted during battle. You awake to find that yourself rescued by your companions. </t>
+  </si>
+  <si>
     <t>魔蛛洞穴</t>
   </si>
   <si>
-    <t>entrance:这个诡异的洞穴四周布满了巨大的蜘蛛网和骸骨，但是通过洞口隐约可以看见的珠宝的反射吸引着路过的每一个冒险者。
+    <t xml:space="preserve">entrance:这个诡异的洞穴四周布满了巨大的蜘蛛网和骸骨，但是通过洞口隐约可以看见的珠宝的反射吸引着路过的每一个冒险者。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在这个布满蛛网的洞穴里缓慢的前进着，脚底下踩过几颗不知道哪个年代的古币。
@@ -355,10 +560,24 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经被同伴们救了出来。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:This strange cave is filled with giant cobwebs and bones, but reflections of glimmering jewels are more than enough to lure in most adventurers.
+cost:You must spend {0} resources if you wish to explore the area.
+noCost:You don't have enough resources to start exploring.
+encounter:You enter the cobweb-filled cave as you step on piles of coins that were minted during dynasties long forgotten.
+noDouzhi:Your party lost Morale and you resigned to fleeing.
+empty:There aren't any enemies here.
+BOSS:A giant spider, the guardian of these treasures, rushes towards you as your companions pull out their weapons in defense!
+BOSS_WIN:You defeated the giant spider.\n\n{0}\n\nYou run out of exploration resources and leave this place.
+BOSS_LOSE:You fainted during battle. You awake to find that yourself rescued by your companions.
+NORMAL:You find yourself surrounded by spiders glowing purple with arcana!
+NORMAL_WIN:You defeated the spiders and leave with a sense of renewed urgency.\n\n{0}
+NORMAL_LOSE:You fainted during battle. You awake to find that yourself rescued by your companions.</t>
+  </si>
+  <si>
     <t>炎热蛇穴</t>
   </si>
   <si>
-    <t>entrance:这是个废弃的地下井，井口散发着炎热的气息。传闻此处曾是旧王朝的玉石矿井，但是有一天突然被大量蛇类占领了，从此便废弃了。
+    <t xml:space="preserve">entrance:这是个废弃的地下井，井口散发着炎热的气息。传闻此处曾是旧王朝的玉石矿井，但是有一天突然被大量蛇类占领了，从此便废弃了。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你汗流浃背的前进着，毒蛇们吐信子的声音让你觉得毛骨悚然。
@@ -372,10 +591,24 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经被同伴们救了出来。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:You feel a scorching heat radiating from this abandoned mineshaft. Rumors have it that the Nephrit mined Jade here, but abandoned the operation when a nest of vipers took the tunnels for themselves.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:You require more resources to begin exploring this area.
+encounter:You move forward drenched in sweat. The ceaseless hissing of vipers sends shivers down your spine.
+noDouzhi:Your party lost Morale and you resigned to fleeing.
+empty:It seems as if there are no enemies here.
+BOSS:You reach the deepest section of the mine, only to find a giant viper protecting a pile of precious Jade. The only path forward is paved in snake blood!
+BOSS_WIN:You defeated the giant serpent, claim its Jade, and leave as quickly as you can.
+BOSS_LOSE:You lose consciousness from the venom. When you awaken, you find yourself to have been rescued by your companions.
+NORMAL:You are suddenly attacked by several giant snakes!
+NORMAL_WIN:You defeat the giant snakes.\n\n{0}
+NORMAL_LOSE:You lose consciousness in battle. When you awaken, you find yourself to have been rescued by your companions.</t>
+  </si>
+  <si>
     <t>魔镜</t>
   </si>
   <si>
-    <t>entrance:一面闪闪发光的镜子，一旦靠近，它便会发出诡异的笑声。附近的住民告诉你，这副魔镜是旧王朝巫师留下的一个传送门，进入后便可以找到巫师的宝藏。
+    <t xml:space="preserve">entrance:一面闪闪发光的镜子，一旦靠近，它便会发出诡异的笑声。附近的住民告诉你，这副魔镜是旧王朝巫师留下的一个传送门，进入后便可以找到巫师的宝藏。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:在这个传送门内，四处都是你和你的队友们的倒影，你甚至分不清身边人是真是假了。
@@ -389,10 +622,25 @@
 NORMAL_LOSE:你在战斗中昏了过去，醒来时发现自己已经被同伴们救了出来。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:A glittering mirror begins laughing eerily as you approach. Nearby villagers tell you that it is a portal left by Nephrit wizards from the Old Empire. "They hid great treasures inside," one of them adds.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:You require more resources to begin exploring this area.
+encounter:Inside the mirror you find copies and imitations of yourself and your companions. You cannot tell who is friend or foe, nor real or conjured.
+noDouzhi:Your party lost Morale and you resigned to fleeing.
+empty:It seems as if there are no enemies here.
+empty:It seems as if there are no enemies here.
+BOSS:You walk into the final realm of the mirror - a room with eight reflective walls. You are suddenly attacked by a wizard and his conjurations!
+BOSS_WIN:You defeat the wizard and copies of yourself. You decide you have had enough confusion for one day and leave the reflective realm.
+BOSS_LOSE:You lose consciousness in battle. When you awaken, you find yourself to have been rescued by your companions.
+NORMAL:You are attacked by several Naga Witches that are standing guard!
+NORMAL_WIN:You defeat the Naga Witches.\n\n{0}
+NORMAL_LOSE:You lose consciousness in battle. When you awaken, you find yourself to have been rescued by your companions.</t>
+  </si>
+  <si>
     <t>红石城</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，赫炎学会的纹章在石壁上闪耀着魔力的微光。只有红石城的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，赫炎学会的纹章在石壁上闪耀着魔力的微光。只有红石城的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -403,10 +651,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. The emblem of the Ember Society glows faintly on the walls. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Redstone Keep may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of the sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>花卉乡</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，一枚凤凰的纹章在石壁上闪耀着魔力的微光。只有花卉乡的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，一枚凤凰的纹章在石壁上闪耀着魔力的微光。只有花卉乡的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -417,10 +676,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. The emblem of a phoenix glows faintly on the walls. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Fleur may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>半月山集市</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，巨龙形状的纹章在石壁上闪耀着魔力的微光。只有半月山的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，巨龙形状的纹章在石壁上闪耀着魔力的微光。只有半月山的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -431,10 +701,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. The emblem of a dragon glows faintly on the walls. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Halfmoon Hills may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>雪岭镇</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，常年被冰雪覆盖。只有雪岭镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，常年被冰雪覆盖。只有雪岭镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -445,10 +726,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away, forever covered in snow. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Snowridge may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>冰谷</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，弥漫着冰冷刺骨的冻气。只有冰谷的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，弥漫着冰冷刺骨的冻气。只有冰谷的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -459,10 +751,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. You feel chilled to your bone as you approach. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Frost Valley may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>沙风镇</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，石柱上远古时代意义不明的符文闪耀着魔力的微光。只有沙风镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，石柱上远古时代意义不明的符文闪耀着魔力的微光。只有沙风镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -473,10 +776,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. Strange runes glow faintly on stone pillars. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Dunestorm may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>黑泥城</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，暴风与雷电在此聚集肆掠。只有黑泥城的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，暴风与雷电在此聚集肆掠。只有黑泥城的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -487,10 +801,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. Lightning and thunder constantly rage here. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Mireton may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>那古卡</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，你感受到了强大的魔力波动。只有那古卡的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，你感受到了强大的魔力波动。只有那古卡的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -501,10 +826,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. Powerful magical energies ripple throughout this place. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Nagukka may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>陶山镇</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，入口的石柱上雕刻着华美的符文。只有陶山镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，入口的石柱上雕刻着华美的符文。只有陶山镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -515,10 +851,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. The pillars at the entrance are etched with elaborate runes. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Cotta Town may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>三石堡</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，人马形状的纹章在石壁上闪耀着魔力的微光。只有三石堡的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，人马形状的纹章在石壁上闪耀着魔力的微光。只有三石堡的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -529,10 +876,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. The emblem of a centaur glows faintly on the walls. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Triptych Rock may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>紫木镇</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，上古时代意义不明的符文在石壁上闪耀着魔力的微光。只有紫木镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，上古时代意义不明的符文在石壁上闪耀着魔力的微光。只有紫木镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -543,10 +901,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. Undecipherable ancient runes glow faintly on the walls. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Amaranth Town may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>北风镇</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，一些传说之中极其强大的封印之物被埋藏在此。只有北风镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，一些传说之中极其强大的封印之物被埋藏在此。只有北风镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -557,10 +926,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. Ancient objects of unimaginable power are buried here. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Qebui Keep may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>苦泉镇</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，沙风呼啸。只有苦泉镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，沙风呼啸。只有苦泉镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -571,10 +951,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. Sandstorms rage all around it. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Diresprings may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>驼铃集市</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，你感受到一股强大的魔力波动。只有驼铃集市的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，你感受到一股强大的魔力波动。只有驼铃集市的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -585,10 +976,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. Powerful magical energies ripple throughout this place. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Camel Bell Bazaar may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>黄金集市</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，入口石柱上的符文光辉灿烂。只有黄金集市的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，入口石柱上的符文光辉灿烂。只有黄金集市的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -599,10 +1001,21 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. The pillars at the entrance are etched with brightly glowing runes. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Golden Bazaar may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
+  </si>
+  <si>
     <t>浅溪镇</t>
   </si>
   <si>
-    <t>entrance:这里是上古至今的封印之地，鱼人形状的纹章在石壁上闪耀着魔力的微光。只有浅溪镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
+    <t xml:space="preserve">entrance:这里是上古至今的封印之地，鱼人形状的纹章在石壁上闪耀着魔力的微光。只有浅溪镇的&lt;color=red&gt;领主&lt;/color&gt;才有资格踏足此地。
 cost:要开始探索，你需要先花费{0}采购探索物资。
 noCost:你的资源不足，无法开始探索。
 encounter:你在古老而神秘的魔力通道上前行，四周都是意义不明的封印符文。
@@ -613,445 +1026,32 @@
 BOSS_LOSE:你在战斗中昏了过去，醒来时发现自己已经离开了封印之地。</t>
   </si>
   <si>
-    <t>entrance:Você se depara com uma mina abandonada perto do Forte Pedra Vermelha. Ferramentas quebradas estão espalhadas pelo chão.
-cost:Será necessário gastar {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você explora as cavernas escuras. Elas estão completamente silenciosas, exceto pelo vento frio que sopra constantemente em seu rosto.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O fogo ilumina a escuridão e você vê o rosto selvagem de um mago entre as chamas cintilantes!
-BOSS_WIN:Você derrota o Mago Chakram Jahim e encontra alguns itens.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é páreo para o inimigo e é forçado a fugir para salvar sua vida.
-NORMAL:Você encontrou alguns bandidos!
-NORMAL_WIN:Os bandidos se espalham. Você continua sua busca e encontra alguns suprimentos.\n\n{0}
-NORMAL_LOSE:Você foge para salvar sua vida ao som de risadas sinistras.</t>
-  </si>
-  <si>
-    <t>entrance:Você encontra uma oficina de cerâmica que data do Velho Império.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Pedaços quebrados de cerâmica estão espalhados pelo chão.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:Um grupo de bandidos embosca você por trás de algumas estátuas de barro!
-BOSS_WIN:Você derrota os bandidos e encontra algum loot.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é páreo para o inimigo e é forçado a fugir para salvar sua vida.
-NORMAL:Você encontrou alguns bandidos!
-NORMAL_WIN:Você derrota os bandidos. Você continua sua busca e encontra alguns suprimentos.\n\n{0}
-NORMAL_LOSE:Você é forçado a fugir para salvar sua vida.</t>
-  </si>
-  <si>
-    <t>entrance:Esta é uma caverna usada pelos habitantes dos Penhascos de Umbra como refúgio durante a Batalha do Sol Negro. Ela está abandonada há muito tempo.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha pela caverna e vê diversos itens deixados pelos ocupantes anteriores. 
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:Você é surpreendido por espíritos da natureza na caverna abandonada.\n\nArborianos e dríades o cercaram você!
-BOSS_WIN:Você derrota os espíritos da natureza e encontra alguns tesouros. \n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é páreo para o inimigo e é forçado a fugir para salvar sua vida.
-NORMAL:Você encontra alguns javalis selvagens furiosos!
-NORMAL_WIN:Você derrota os javalis selvagens e continua sua busca. Você encontra alguns suprimentos.\n\n{0}
-NORMAL_LOSE:Você é forçado a fugir para salvar sua vida.</t>
-  </si>
-  <si>
-    <t>entrance:Você vê um vale isolado e nevado. Ervas medicinais podem ser encontradas aqui, mas Ifrit e bestas errantes afastam a maioria das pessoas.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você avança pelo vale contra o vento uivante.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:Risadas sinistras ecoam pela área. Você foi cercado por Ifrit!
-BOSS_WIN:Você derrota os Ifrits e encontra alguns itens.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é páreo para o inimigo e é forçado a fugir para salvar sua vida.
-NORMAL:You encounter some Brown Bears!
-NORMAL_WIN:You defeat the Brown Bears. Você continua sua busca e encontra alguns suprimentos.\n\n{0}
-NORMAL_LOSE:Você é forçado a fugir para salvar sua vida.</t>
-  </si>
-  <si>
-    <t>entrance:Você se depara com uma caverna isolada. Há um guerreiro aqui vestindo as vestes dos Oryx, um clã dizimado durante a Batalha do Sol Negro.
-cost:Você é parado pelo guerreiro. Ele sugere que há uma reunião de sobreviventes Oryx lá dentro, mas só o deixará passar por {0}.
-noCost:Você não tem o que o guerreiro quer. Ele gesticula para você sair.
-encounter:Você ouve vozes baixas ao caminhar pela caverna.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSSMAP:Você vê luz à frente. Deve ser a saída.
-BOSS:O feiticeiro murmura encantamentos e se prepara para lançar um feitiço em você!
-BOSS_WIN:Você derrota Shedan, o Feiticeiro, e encontra alguns itens.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é páreo para o inimigo e é forçado a fugir para salvar sua vida.
-NORMAL:Você encontra guerreiros Oryx!
-NORMAL_WIN:Você derrota os guerreiros Oryx. Você continua sua busca e encontra alguns suprimentos.\n\n{0}
-NORMAL_LOSE:Você foge para salvar sua vida enquanto o som de risadas sinistras ecoa atrás de você.</t>
-  </si>
-  <si>
-    <t>entrance:Um vale onde ventos fortes rugem o ano todo se estende diante de você. Poucos homens são estúpidos o suficiente para prosseguir, e ainda menos cavalos.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você luta para avançar no vento forte.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O chão treme. É uma manada de Centauros!
-BOSS_WIN:Você derrota os Centauros.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é páreo para o inimigo e é forçado a fugir para salvar sua vida.
-NORMAL:Você se depara com algumas cobras.
-NORMAL_WIN:Você derrota as cobras.\n\n{0}
-NORMAL_LOSE:Você foge do vale.</t>
-  </si>
-  <si>
-    <t>entrance:Um círculo mágico, deixado para trás por Dríades e Arbóreos.
-cost:É necessário {0} para ativar o círculo mágico.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você vaga pela floresta, ouvindo o riso das Dríades entre as árvores.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O chão treme. Você está cercado por Arbóreos!
-BOSS_WIN:Você derrota os espíritos da natureza.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é páreo para o inimigo e é forçado a fugir para salvar sua vida.
-NORMAL:Você encontra Fadas!
-NORMAL_WIN:Você derrota as Fadas.\n\n{0}
-NORMAL_LOSE:Você é forçado a fugir para salvar sua vida.</t>
-  </si>
-  <si>
-    <t>entrance:A karst cave near Agadir, occupied by Bahars, Vipers and Poison Lizards.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:You advance carefully through the cave. The only sounds you here are the echoes of your own footsteps and the sounds of dripping water.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:Lagartos venenosos bloqueiam seu caminho!
-BOSS_WIN:Você derrota os lagartos.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é páreo para o inimigo e é forçado a fugir para salvar sua vida.
-NORMAL:Você encontra um Bahar!
-NORMAL_WIN:Você derrota o Bahar.\n\n{0}
-NORMAL_LOSE:Você recua da caverna.</t>
-  </si>
-  <si>
-    <t>entrance:Uma caverna de gelo remota. Você encontra pegadas gigantes do lado de fora da caverna.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você explora a caverna gelada.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O chão treme. Você se encontra cara a cara com gigantes!
-BOSS_WIN:Você derrota os gigantes.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é páreo para o inimigo e é forçado a fugir para salvar sua vida.
-NORMAL:Você encontra algumas feras!
-NORMAL_WIN:Você derrota as feras.\n\n{0}
-NORMAL_LOSE:Você é forçado a retornar à cidade.</t>
-  </si>
-  <si>
-    <t>entrance:Uma caverna antiga selada por um mago. Você sente perigo vindo de dentro.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você avança pela caverna. Uma névoa começa a obscurecer sua visão.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O chão treme. Você se depara com gigantes que foram selados aqui!
-BOSS_WIN:Você derrota os gigantes.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:You are not ready to set foot here. You retreat from the cave.
-NORMAL:Você encontra  yetis!
-NORMAL_WIN:Você derrota os yetis.\n\n{0}
-NORMAL_LOSE:Você não está pronto para entrar aqui. Você recua da caverna.</t>
-  </si>
-  <si>
-    <t>entrance:Um palácio de árvores construído pelos espíritos da natureza.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você se move lentamente pelos caminhos de cipós. De vez em quando, você pode ouvir os sussurros dos arborianos e das dríades.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:Os Anciãos Arborianos bloqueiam seu caminho. Você está cercado pelos espíritos da natureza.
-BOSS_WIN:Você derrota os Anciãos Arborianos.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:É melhor não perturbar mais os espíritos da natureza. Você recua do local.
-NORMAL:Você encontra dríades!
-NORMAL_WIN:Você derrota as dríades.\n\n{0}
-NORMAL_LOSE:É melhor não perturbar mais os espíritos da natureza. Você recua do local.</t>
-  </si>
-  <si>
-    <t>entrance:Em tempos do Império Antigo, estudiosos da cidade de Jamal encontraram ossos gigantes durante uma escavação nesta caverna misteriosa. A queda do Império Antigo marcou o fim de tais expedições.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você explora a caverna e vê ossos gigantes com cores e padrões estranhos.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:Após um flash de luz ofuscante, você vê visões de gigantes atacando você!
-BOSS_WIN:Você derrota os gigantes!\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você desmaia diante da visão terrível e acorda do lado de fora da caverna.
-NORMAL:Você encontra um enxame de lagartos venenosos gigantes!
-NORMAL_WIN:Você derrota os lagartos venenosos.\n\n{0}
-NORMAL_LOSE:Você não é páreo para os escorpiões tóxicos e foge da caverna.</t>
-  </si>
-  <si>
-    <t>entrance:Um buraco enorme que apareceu com o Sol Negro e o Ifrit. Tudo o que você pode ver é lava borbulhando, com um caminho precário serpenteando por ele.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:A lava borbulha ao seu redor conforme você avança pelo caminho. O calor é insuportável; parece que suas armas e armaduras podem pegar fogo a qualquer momento.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:Você ouve risadas sinistras ao seu redor e se encontra cercado por Guerreiros Ifrit Elite.
-BOSS_WIN:Você derrota os Guerreiros Ifrit Elite.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você não é forte o suficiente para continuar explorando e é forçado a recuar.
-NORMAL:Você encontra Guerreiros Ifrit!
-NORMAL_WIN:Você derrota os Guerreiros Ifrit.\n\n{0}
-NORMAL_LOSE:Você não é forte o suficiente para continuar explorando e é forçado a recuar.</t>
-  </si>
-  <si>
-    <t>entrance:Um portal para a casa dos gigantes nas Montanhas Zagros. É constantemente bombardeado por ventos gelados, mas seu brilho mágico sinistro é inconfundível, mesmo na nevasca.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha pelo antigo caminho de pedra, cercado por estranhos pilares de pedra.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O chão treme e os guardiões dos gigantes aparecem diante de você!
-BOSS_WIN:Você derrota os guardiões!\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é nocauteado na batalha e acorda do lado de fora da formação de pedra.
-NORMAL:Você encontra gigantes!
-NORMAL_WIN:Você derrota os gigantes.\n\n{0}
-NORMAL_LOSE:Você é nocauteado na batalha e acorda do lado de fora da formação de pedra.</t>
-  </si>
-  <si>
-    <t>entrance:O tempo e o espaço estão distorcidos perto do portal arcano roxo. Seus cavalos se recusam a ir mais longe. Algum poder nefasto deve estar contido aqui.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem recursos suficientes.
-encounter:Você sente como se estivesse caminhando por outra dimensão. Rachaduras roxas aparecem no ar diante de você.
-noDouzhi:Seu grupo perdeu moral e você decide fugir.
-empty:Não há inimigos aqui.
-BOSS:Você encontra um homem com braços gigantescos nas profundezas deste espaço. Ele ataca você com um sorriso malicioso no rosto!
-BOSS_WIN:Você derrotou a criatura, mas não tem certeza se ele era humano ou algum demônio de outro mundo!\n\n{0}\n\nVocê fica sem recursos de exploração e deixa este lugar.
-BOSS_LOSE:Você desmaiou durante a batalha. Você acorda e descobre que foi resgatado por seus companheiros.
-NORMAL:Uma horda de demônios alados menores voa de uma das fendas!
-NORMAL_WIN:Você derrotou os demônios.\n\n{0}
-NORMAL_LOSE:Você desmaiou durante a batalha. Você acorda e descobre que foi resgatado por seus companheiros.</t>
-  </si>
-  <si>
-    <t>entrance:Esta estranha caverna está cheia de teias de aranha gigantes e ossos, mas os reflexos de joias cintilantes são mais do que suficientes para atrair a maioria dos aventureiros.
-cost:Você deve gastar {0} recursos se quiser explorar a área.
-noCost:Você não tem recursos suficientes para começar a explorar.
-encounter:Você entra na caverna cheia de teias de aranha e pisa em pilhas de moedas que foram cunhadas durante dinastias há muito esquecidas.
-noDouzhi:Seu grupo perdeu Moral e você se resignou a fugir.
-empty:Não há inimigos aqui.
-BOSS:Uma aranha gigante, a guardiã desses tesouros, avança em sua direção enquanto seus companheiros sacam as armas em defesa!
-BOSS_WIN:Você derrotou a aranha gigante.\n\n{0}\n\nVocê fica sem recursos de exploração e deixa este lugar.
-BOSS_LOSE:Você desmaiou durante a batalha. Você acorda e descobre que foi resgatado por seus companheiros.
-NORMAL:Você se encontra cercado por aranhas brilhando em roxo com arcana!
-NORMAL_WIN:Você derrotou as aranhas e saiu com uma sensação de urgência renovada.\n\n{0}
-NORMAL_LOSE:Você desmaiou durante a batalha. Você acorda e descobre que foi resgatado por seus companheiros.</t>
-  </si>
-  <si>
-    <t>entrance:Você sente um calor escaldante vindo deste poço de minas abandonado. Rumores dizem que os Nephrit mineraram Jade aqui, mas abandonaram a operação quando uma ninhada de víboras tomou os túneis para si.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você precisa de mais recursos para começar a explorar esta área.
-encounter:Você avança, encharcado de suor. O constante sibilar das víboras faz arrepios percorrerem sua espinha.
-noDouzhi:Seu grupo perdeu o moral e você se resignou a fugir.
-empty:Parece que não há inimigos aqui.
-BOSS:Você alcança a seção mais profunda da mina, apenas para encontrar uma gigantesca víbora protegendo um monte de Jade preciosa. O único caminho à frente está pavimentado com o sangue da cobra!
-BOSS_WIN:Você derrotou a serpente gigante, reivindicou a Jade e saiu o mais rápido que pôde.
-BOSS_LOSE:Você perde a consciência devido ao veneno. Quando acorda, descobre ter sido resgatado por seus companheiros.
-NORMAL:Você é repentinamente atacado por várias cobras gigantes!
-NORMAL_WIN:Você derrota as cobras gigantes.\n\n{0}
-NORMAL_LOSE:Você perde a consciência na batalha. Quando acorda, descobre que foi resgatado por seus companheiros.</t>
-  </si>
-  <si>
-    <t>entrance:Um espelho cintilante começa a rir de forma sinistra conforme você se aproxima. Os aldeões locais dizem que é um portal deixado pelos magos Nephrit do Antigo Império. "Eles esconderam grandes tesouros lá dentro", acrescenta um deles.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você precisa de mais recursos para começar a explorar esta área.
-encounter:Dentro do espelho, você encontra cópias e imitações de si mesmo e de seus companheiros. Você não consegue distinguir quem é amigo ou inimigo, nem o que é real ou conjurado.
-noDouzhi:Seu grupo perdeu a moral e você decidiu fugir.
-empty:Parece que não há inimigos aqui.
-empty:Parece que não há inimigos aqui.
-BOSS:Você entra no reino final do espelho - uma sala com oito paredes reflexivas. De repente, você é atacado por um mago e suas conjurações!
-BOSS_WIN:Você derrota o mago e as cópias de si mesmo. Você decide que já teve confusão suficiente por um dia e deixa o reino reflexivo.
-BOSS_LOSE:Você perde a consciência na batalha. Quando acorda, percebe que foi resgatado por seus companheiros.
-NORMAL:Você é atacado por várias Bruxas Naga que estão de guarda!
-NORMAL_WIN:Você derrota as Bruxas Naga.\n\n{0}
-NORMAL_LOSE:Você perde a consciência na batalha. Quando acorda, descobre que foi resgatado por seus companheiros.</t>
-  </si>
-  <si>
-    <t>entrance:Um santuário antigo que foi selado. O emblema da Sociedade da Brasa brilha fracamente nas paredes. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; da Fortaleza de Pedra Vermelha pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:An ancient sanctuary that has been sealed away. The emblem of a phoenix glows faintly on the walls. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Fleur may tread this place.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:An ancient sanctuary that has been sealed away. The emblem of a dragon glows faintly on the walls. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Halfmoon Hills may tread this place.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um santuário antigo selado para sempre, coberto de neve. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; de Snowridge pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. Você sente um frio na espinha ao se aproximar. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; do Vale do Gelo pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um santuário antigo selado. Runas estranhas brilham fracamente em pilares de pedra. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; da Tempestade das Dunas pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. Raios e trovões ressoam constantemente aqui. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; de Mireton pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. Energias mágicas poderosas ondulam por este lugar. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; de Nagukka pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. Os pilares na entrada estão gravados com runas elaboradas. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; da Cidade de Cotta pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. O emblema de um centauro brilha fracamente nas paredes. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; da Rocha Tríplice pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. Runas antigas indecifráveis brilham fracamente nas paredes. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; da Cidade do Amaranth pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. Objetos antigos de poder inimaginável estão enterrados aqui. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; da Fortaleza de Qebui pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. Tempestades de areia redemoinham ao seu redor. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; de Fontes Sinistras pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. Energias mágicas poderosas ondulam por este lugar. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; do Bazar do Sino do Camelo pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. Os pilares na entrada estão gravados com runas que brilham intensamente. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; do Bazar Dourado pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
-  </si>
-  <si>
-    <t>entrance:Um antigo santuário selado. O emblema de um Bahar brilha fracamente nas paredes. Apenas o &lt;color=red&gt;Sultão&lt;/color&gt; de Agadir pode pisar neste lugar.
-cost:Custará {0} para adquirir os suprimentos necessários para a exploração.
-noCost:Você não tem suprimentos suficientes para explorar esta caverna.
-encounter:Você caminha por um misterioso corredor antigo. Runas indecifráveis revestem todas as paredes.
-noDouzhi:Sua equipe está exausta e você é forçado a sair.
-empty:Não há inimigos aqui.
-BOSS:O guardião do santuário aparece diante de você!
-BOSS_WIN:Você derrota o guardião.\n\n{0}\n\nVocê fica sem suprimentos e é forçado a sair da caverna.
-BOSS_LOSE:Você é derrotado em batalha e acorda do lado de fora do santuário.</t>
+    <t xml:space="preserve">entrance:An ancient sanctuary that has been sealed away. The emblem of a Bahar glows faintly on the walls. Only the &lt;color=red&gt;Sultan&lt;/color&gt; of Agadir may tread this place.
+cost:It will cost {0} to procure the necessary supplies for exploration.
+noCost:Not enough supplies to explore.
+encounter:You walk through a mysterious ancient passage. Undecipherable runes line every wall.
+noDouzhi:Your team is exhausted and you are forced to leave.
+empty:There are no enemies here.
+BOSS:The guardian of this sanctuary appears before you!
+BOSS_WIN:You defeat the guardian.\n\n{0}\n\nYou run out of supplies and leave this place.
+BOSS_LOSE:You are knocked out in battle and wake up outside the sanctuary.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1061,15 +1061,140 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1082,26 +1207,8 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1109,6 +1216,192 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
@@ -1134,16 +1427,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF08080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04"/>
+        <fgColor rgb="FFF08080" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEA04" tint="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1168,93 +1461,521 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="67">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="3" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="2" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="12" applyFill="1" borderId="5" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="12" applyFill="1" borderId="3" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="16" applyFill="1" borderId="4" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="49" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="36" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="37" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="38" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="33" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="39" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="33" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="40" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="39" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="41" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="42" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="普通 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1541,412 +2262,404 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+    <row r="1">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="375">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="330">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="16" t="s">
+    <row r="25">
+      <c r="A25" s="60" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="360">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B25" s="52" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="330">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="C25" s="66" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="409.5">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="16" t="s">
+    <row r="26">
+      <c r="A26" s="61" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="300">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B26" s="52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="315">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="C26" s="66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="330">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="16" t="s">
+    <row r="27">
+      <c r="A27" s="61" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="330">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B27" s="52" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="330">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="C27" s="66" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="330">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="16" t="s">
+    <row r="28">
+      <c r="A28" s="62" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="360">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B28" s="52" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="360">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="C28" s="66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="375">
-      <c r="A15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="16" t="s">
+    <row r="29">
+      <c r="A29" s="62" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="375">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B29" s="52" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="390">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="C29" s="66" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="360">
-      <c r="A18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="16" t="s">
+    <row r="30">
+      <c r="A30" s="62" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="375">
-      <c r="A19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B30" s="52" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="285">
-      <c r="A20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="C30" s="66" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="285">
-      <c r="A21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="16" t="s">
+    <row r="31">
+      <c r="A31" s="63" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="285">
-      <c r="A22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="B31" s="52" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="270">
-      <c r="A23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="C31" s="66" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="270">
-      <c r="A24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="16" t="s">
+    <row r="32">
+      <c r="A32" s="62" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="285">
-      <c r="A25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="B32" s="52" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="285">
-      <c r="A26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="C32" s="66" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="285">
-      <c r="A27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="16" t="s">
+    <row r="33">
+      <c r="A33" s="62" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="285">
-      <c r="A28" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="16" t="s">
+      <c r="B33" s="52" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="285">
-      <c r="A29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="C33" s="66" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="285">
-      <c r="A30" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="16" t="s">
+    <row r="34">
+      <c r="A34" s="61" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="285">
-      <c r="A31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="B34" s="52" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="270">
-      <c r="A32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="C34" s="66" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="285">
-      <c r="A33" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="16" t="s">
+    <row r="35">
+      <c r="A35" s="61" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="285">
-      <c r="A34" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="16" t="s">
+      <c r="B35" s="52" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="285">
-      <c r="A35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="66" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>